--- a/emails.xlsx
+++ b/emails.xlsx
@@ -391,8 +391,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
